--- a/data/oneday.xlsx
+++ b/data/oneday.xlsx
@@ -14,6 +14,16 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$R$2:$R$92</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$R$2:$R$92</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$J$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$J$2:$J$92</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$N$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$N$2:$N$92</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$P$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$P$2:$P$92</definedName>
+  </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -340,13 +350,49 @@
   <si>
     <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机场自带方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1450min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1575min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1577min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>784min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="h:mm;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,13 +415,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -387,12 +446,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -406,8 +468,28 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -421,6 +503,2471 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>机场现有方案</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{5690F55D-F38C-47CE-AD00-D7D48FFC5AB4}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>机场自带方法</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>方法</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>2</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{C04AB530-AC42-48EB-8597-AFA3F09AB3EA}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:v>方法2</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>方法</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{54BE9493-285F-406D-B300-ECDB3FF449A2}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:v>方法1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>考虑乘客到达预期</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{85B7796F-29B5-4B4B-AFB1-AF5759983E3E}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="371">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" baseline="0"/>
+    <cs:bodyPr/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+    <cs:bodyPr/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="371">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" baseline="0"/>
+    <cs:bodyPr/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+    <cs:bodyPr/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="371">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" baseline="0"/>
+    <cs:bodyPr/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+    <cs:bodyPr/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="371">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" baseline="0"/>
+    <cs:bodyPr/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+    <cs:bodyPr/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="图表 1"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>此图表在您的 Excel 版本中不可用。
+编辑此形状或将此工作簿转换为其他文件格式将永久破坏图表。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="图表 2"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>此图表在您的 Excel 版本中不可用。
+编辑此形状或将此工作簿转换为其他文件格式将永久破坏图表。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="图表 3"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>此图表在您的 Excel 版本中不可用。
+编辑此形状或将此工作簿转换为其他文件格式将永久破坏图表。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="图表 4"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>此图表在您的 Excel 版本中不可用。
+编辑此形状或将此工作簿转换为其他文件格式将永久破坏图表。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -686,18 +3233,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:R99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="U86" sqref="U86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.75" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="9.125" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="9.125" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="16" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>97</v>
       </c>
@@ -725,8 +3283,20 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P1" t="s">
+        <v>99</v>
+      </c>
+      <c r="R1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -754,8 +3324,25 @@
       <c r="I2" s="3">
         <v>30.673829999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" s="9">
+        <f>G2-F2</f>
+        <v>1.8055555555555547E-2</v>
+      </c>
+      <c r="K2" s="9"/>
+      <c r="L2">
+        <v>1.8055555555555547E-2</v>
+      </c>
+      <c r="N2" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="P2" s="9">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="R2" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -783,8 +3370,24 @@
       <c r="I3" s="3">
         <v>30.646505000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="9">
+        <f t="shared" ref="J3:J66" si="0">G3-F3</f>
+        <v>4.8611111111111494E-3</v>
+      </c>
+      <c r="L3">
+        <v>4.8611111111111494E-3</v>
+      </c>
+      <c r="N3" s="9">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="P3" s="9">
+        <v>1.3194444444444444E-2</v>
+      </c>
+      <c r="R3" s="9">
+        <v>7.6388888888888886E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -812,8 +3415,24 @@
       <c r="I4" s="3">
         <v>30.649418000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="9">
+        <f t="shared" si="0"/>
+        <v>7.6388888888888062E-3</v>
+      </c>
+      <c r="L4">
+        <v>7.6388888888888062E-3</v>
+      </c>
+      <c r="N4" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="P4" s="9">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="R4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -841,8 +3460,24 @@
       <c r="I5" s="3">
         <v>30.674085999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" s="9">
+        <f t="shared" si="0"/>
+        <v>1.8055555555555547E-2</v>
+      </c>
+      <c r="L5">
+        <v>1.8055555555555547E-2</v>
+      </c>
+      <c r="N5" s="9">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="P5" s="9">
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="R5" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -870,8 +3505,24 @@
       <c r="I6" s="3">
         <v>30.657437000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" s="9">
+        <f t="shared" si="0"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="L6">
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="N6" s="9">
+        <v>1.4583333333333332E-2</v>
+      </c>
+      <c r="P6" s="9">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="R6" s="9">
+        <v>1.4583333333333332E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -899,8 +3550,24 @@
       <c r="I7" s="3">
         <v>30.696078</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="9">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666607E-2</v>
+      </c>
+      <c r="L7">
+        <v>1.6666666666666607E-2</v>
+      </c>
+      <c r="N7" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="P7" s="9">
+        <v>2.013888888888889E-2</v>
+      </c>
+      <c r="R7" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -928,8 +3595,24 @@
       <c r="I8" s="3">
         <v>30.646660000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" s="9">
+        <f t="shared" si="0"/>
+        <v>1.9444444444444486E-2</v>
+      </c>
+      <c r="L8">
+        <v>1.9444444444444486E-2</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0</v>
+      </c>
+      <c r="P8" s="9">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="R8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -957,8 +3640,24 @@
       <c r="I9" s="3">
         <v>30.659859999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" s="9">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="L9">
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="N9" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="P9" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="R9" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -986,8 +3685,24 @@
       <c r="I10" s="3">
         <v>30.68131</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" s="9">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333037E-3</v>
+      </c>
+      <c r="L10">
+        <v>8.3333333333333037E-3</v>
+      </c>
+      <c r="N10" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="P10" s="9">
+        <v>9.0277777777777787E-3</v>
+      </c>
+      <c r="R10" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1015,8 +3730,24 @@
       <c r="I11" s="3">
         <v>30.633738000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" s="9">
+        <f t="shared" si="0"/>
+        <v>7.6388888888888618E-3</v>
+      </c>
+      <c r="L11">
+        <v>7.6388888888888618E-3</v>
+      </c>
+      <c r="N11" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="P11" s="9">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="R11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1044,8 +3775,24 @@
       <c r="I12" s="3">
         <v>30.62886</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" s="9">
+        <f t="shared" si="0"/>
+        <v>6.9444444444443088E-3</v>
+      </c>
+      <c r="L12">
+        <v>6.9444444444443088E-3</v>
+      </c>
+      <c r="N12" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="P12" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="R12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1073,8 +3820,24 @@
       <c r="I13" s="3">
         <v>30.643685000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" s="9">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="L13">
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="N13" s="9">
+        <v>6.2499999999999995E-3</v>
+      </c>
+      <c r="P13" s="9">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="R13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1102,8 +3865,24 @@
       <c r="I14" s="3">
         <v>30.612248000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14" s="9">
+        <f t="shared" si="0"/>
+        <v>2.0138888888888706E-2</v>
+      </c>
+      <c r="L14">
+        <v>2.0138888888888706E-2</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+      <c r="P14" s="9">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="R14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1131,8 +3910,24 @@
       <c r="I15" s="3">
         <v>30.624537</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15" s="9">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666607E-2</v>
+      </c>
+      <c r="L15">
+        <v>1.6666666666666607E-2</v>
+      </c>
+      <c r="N15" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="P15" s="9">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="R15" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1160,8 +3955,24 @@
       <c r="I16" s="3">
         <v>30.660150000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" s="9">
+        <f t="shared" si="0"/>
+        <v>1.736111111111116E-2</v>
+      </c>
+      <c r="L16">
+        <v>1.736111111111116E-2</v>
+      </c>
+      <c r="N16" s="9">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="P16" s="9">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="R16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1189,8 +4000,24 @@
       <c r="I17" s="3">
         <v>30.653293999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" s="9">
+        <f t="shared" si="0"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="L17">
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="N17" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="P17" s="9">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="R17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -1218,8 +4045,24 @@
       <c r="I18" s="3">
         <v>30.62651</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" s="9">
+        <f t="shared" si="0"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="L18">
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="N18" s="9">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="P18" s="9">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="R18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -1247,8 +4090,24 @@
       <c r="I19" s="3">
         <v>30.654769000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" s="9">
+        <f t="shared" si="0"/>
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="L19">
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="N19" s="9">
+        <v>0</v>
+      </c>
+      <c r="P19" s="9">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="R19" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -1276,8 +4135,24 @@
       <c r="I20" s="3">
         <v>30.66818</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20" s="9">
+        <f t="shared" si="0"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="L20">
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="N20" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="P20" s="9">
+        <v>9.0277777777777787E-3</v>
+      </c>
+      <c r="R20" s="9">
+        <v>6.9444444444444447E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -1305,8 +4180,24 @@
       <c r="I21" s="3">
         <v>30.632327</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2499999999999956E-2</v>
+      </c>
+      <c r="L21">
+        <v>1.2499999999999956E-2</v>
+      </c>
+      <c r="N21" s="9">
+        <v>1.9444444444444445E-2</v>
+      </c>
+      <c r="P21" s="9">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="R21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -1334,8 +4225,24 @@
       <c r="I22" s="3">
         <v>30.654906</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22" s="9">
+        <f t="shared" si="0"/>
+        <v>1.5972222222222165E-2</v>
+      </c>
+      <c r="L22">
+        <v>1.5972222222222165E-2</v>
+      </c>
+      <c r="N22" s="9">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="P22" s="9">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="R22" s="9">
+        <v>9.0277777777777787E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -1363,8 +4270,24 @@
       <c r="I23" s="3">
         <v>30.622495000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23" s="9">
+        <f t="shared" si="0"/>
+        <v>6.9444444444443088E-3</v>
+      </c>
+      <c r="L23">
+        <v>6.9444444444443088E-3</v>
+      </c>
+      <c r="N23" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="P23" s="9">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="R23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -1392,8 +4315,24 @@
       <c r="I24" s="3">
         <v>30.628063999999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24" s="9">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666607E-2</v>
+      </c>
+      <c r="L24">
+        <v>1.6666666666666607E-2</v>
+      </c>
+      <c r="N24" s="9">
+        <v>1.2499999999999999E-2</v>
+      </c>
+      <c r="P24" s="9">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="R24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -1421,8 +4360,24 @@
       <c r="I25" s="3">
         <v>30.657453</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25" s="9">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333037E-3</v>
+      </c>
+      <c r="L25">
+        <v>8.3333333333333037E-3</v>
+      </c>
+      <c r="N25" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="P25" s="9">
+        <v>1.8055555555555557E-2</v>
+      </c>
+      <c r="R25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -1450,8 +4405,24 @@
       <c r="I26" s="3">
         <v>30.600940000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26" s="9">
+        <f t="shared" si="0"/>
+        <v>1.8750000000000044E-2</v>
+      </c>
+      <c r="L26">
+        <v>1.8750000000000044E-2</v>
+      </c>
+      <c r="N26" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="P26" s="9">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="R26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -1479,8 +4450,24 @@
       <c r="I27" s="3">
         <v>30.527426999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27" s="9">
+        <f t="shared" si="0"/>
+        <v>1.8055555555555491E-2</v>
+      </c>
+      <c r="L27">
+        <v>1.8055555555555491E-2</v>
+      </c>
+      <c r="N27" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="P27" s="9">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="R27" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -1508,8 +4495,24 @@
       <c r="I28" s="3">
         <v>30.615756000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J28" s="9">
+        <f t="shared" si="0"/>
+        <v>1.1805555555555625E-2</v>
+      </c>
+      <c r="L28">
+        <v>1.1805555555555625E-2</v>
+      </c>
+      <c r="N28" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="P28" s="9">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="R28" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -1537,8 +4540,24 @@
       <c r="I29" s="3">
         <v>30.545045999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29" s="9">
+        <f t="shared" si="0"/>
+        <v>6.9444444444443088E-3</v>
+      </c>
+      <c r="L29">
+        <v>6.9444444444443088E-3</v>
+      </c>
+      <c r="N29" s="9">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="P29" s="9">
+        <v>1.9444444444444445E-2</v>
+      </c>
+      <c r="R29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -1566,8 +4585,24 @@
       <c r="I30" s="3">
         <v>30.652681000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J30" s="9">
+        <f t="shared" si="0"/>
+        <v>1.8749999999999933E-2</v>
+      </c>
+      <c r="L30">
+        <v>1.8749999999999933E-2</v>
+      </c>
+      <c r="N30" s="9">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="P30" s="9">
+        <v>1.9444444444444445E-2</v>
+      </c>
+      <c r="R30" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -1595,8 +4630,24 @@
       <c r="I31" s="3">
         <v>30.636913</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J31" s="9">
+        <f t="shared" si="0"/>
+        <v>1.5277777777777724E-2</v>
+      </c>
+      <c r="L31">
+        <v>1.5277777777777724E-2</v>
+      </c>
+      <c r="N31" s="9">
+        <v>9.0277777777777787E-3</v>
+      </c>
+      <c r="P31" s="9">
+        <v>1.5972222222222224E-2</v>
+      </c>
+      <c r="R31" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -1624,8 +4675,24 @@
       <c r="I32" s="3">
         <v>30.663833</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J32" s="9">
+        <f t="shared" si="0"/>
+        <v>6.9444444444443088E-3</v>
+      </c>
+      <c r="L32">
+        <v>6.9444444444443088E-3</v>
+      </c>
+      <c r="N32" s="9">
+        <v>0</v>
+      </c>
+      <c r="P32" s="9">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="R32" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -1653,8 +4720,24 @@
       <c r="I33" s="3">
         <v>30.661776</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J33" s="9">
+        <f t="shared" si="0"/>
+        <v>6.2500000000000888E-3</v>
+      </c>
+      <c r="L33">
+        <v>6.2500000000000888E-3</v>
+      </c>
+      <c r="N33" s="9">
+        <v>0</v>
+      </c>
+      <c r="P33" s="9">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="R33" s="9">
+        <v>2.013888888888889E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -1682,8 +4765,24 @@
       <c r="I34" s="3">
         <v>30.656547</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J34" s="9">
+        <f t="shared" si="0"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="L34">
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="N34" s="9">
+        <v>0</v>
+      </c>
+      <c r="P34" s="9">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="R34" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -1711,8 +4810,24 @@
       <c r="I35" s="3">
         <v>30.670086000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35" s="9">
+        <f t="shared" si="0"/>
+        <v>1.5277777777777724E-2</v>
+      </c>
+      <c r="L35">
+        <v>1.5277777777777724E-2</v>
+      </c>
+      <c r="N35" s="9">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="P35" s="9">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="R35" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -1740,8 +4855,24 @@
       <c r="I36" s="3">
         <v>30.656251000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J36" s="9">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333037E-3</v>
+      </c>
+      <c r="L36">
+        <v>8.3333333333333037E-3</v>
+      </c>
+      <c r="N36" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="P36" s="9">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="R36" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -1769,8 +4900,24 @@
       <c r="I37" s="3">
         <v>30.651924999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J37" s="9">
+        <f t="shared" si="0"/>
+        <v>1.5277777777777724E-2</v>
+      </c>
+      <c r="L37">
+        <v>1.5277777777777724E-2</v>
+      </c>
+      <c r="N37" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="P37" s="9">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="R37" s="9">
+        <v>1.1805555555555555E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -1798,8 +4945,24 @@
       <c r="I38" s="3">
         <v>30.603918</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J38" s="9">
+        <f t="shared" si="0"/>
+        <v>1.1111111111111183E-2</v>
+      </c>
+      <c r="L38">
+        <v>1.1111111111111183E-2</v>
+      </c>
+      <c r="N38" s="9">
+        <v>6.2499999999999995E-3</v>
+      </c>
+      <c r="P38" s="9">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="R38" s="9">
+        <v>6.2499999999999995E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -1827,8 +4990,24 @@
       <c r="I39" s="3">
         <v>30.713386</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J39" s="9">
+        <f t="shared" si="0"/>
+        <v>8.3333333333334147E-3</v>
+      </c>
+      <c r="L39">
+        <v>8.3333333333334147E-3</v>
+      </c>
+      <c r="N39" s="9">
+        <v>1.3194444444444444E-2</v>
+      </c>
+      <c r="P39" s="9">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="R39" s="9">
+        <v>4.8611111111111112E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -1856,8 +5035,24 @@
       <c r="I40" s="3">
         <v>30.711406</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J40" s="9">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="L40">
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="N40" s="9">
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="P40" s="9">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="R40" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -1885,8 +5080,24 @@
       <c r="I41" s="3">
         <v>30.695568000000002</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J41" s="9">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666829E-2</v>
+      </c>
+      <c r="L41">
+        <v>1.6666666666666829E-2</v>
+      </c>
+      <c r="N41" s="9">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="P41" s="9">
+        <v>2.013888888888889E-2</v>
+      </c>
+      <c r="R41" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -1914,8 +5125,24 @@
       <c r="I42" s="3">
         <v>30.591621</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J42" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2500000000000067E-2</v>
+      </c>
+      <c r="L42">
+        <v>1.2500000000000067E-2</v>
+      </c>
+      <c r="N42" s="9">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="P42" s="9">
+        <v>1.5972222222222224E-2</v>
+      </c>
+      <c r="R42" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -1943,8 +5170,24 @@
       <c r="I43" s="3">
         <v>30.528269999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J43" s="9">
+        <f t="shared" si="0"/>
+        <v>1.3194444444444509E-2</v>
+      </c>
+      <c r="L43">
+        <v>1.3194444444444509E-2</v>
+      </c>
+      <c r="N43" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="P43" s="9">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="R43" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -1972,8 +5215,24 @@
       <c r="I44" s="3">
         <v>30.651247000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J44" s="9">
+        <f t="shared" si="0"/>
+        <v>1.5972222222222388E-2</v>
+      </c>
+      <c r="L44">
+        <v>1.5972222222222388E-2</v>
+      </c>
+      <c r="N44" s="9">
+        <v>0</v>
+      </c>
+      <c r="P44" s="9">
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="R44" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -2001,8 +5260,24 @@
       <c r="I45" s="3">
         <v>30.556128000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J45" s="9">
+        <f t="shared" si="0"/>
+        <v>8.3333333333334147E-3</v>
+      </c>
+      <c r="L45">
+        <v>8.3333333333334147E-3</v>
+      </c>
+      <c r="N45" s="9">
+        <v>0</v>
+      </c>
+      <c r="P45" s="9">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="R45" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -2030,8 +5305,24 @@
       <c r="I46" s="3">
         <v>30.665759999999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J46" s="9">
+        <f t="shared" si="0"/>
+        <v>9.0277777777776347E-3</v>
+      </c>
+      <c r="L46">
+        <v>9.0277777777776347E-3</v>
+      </c>
+      <c r="N46" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="P46" s="9">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="R46" s="9">
+        <v>9.0277777777777787E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -2059,8 +5350,24 @@
       <c r="I47" s="3">
         <v>30.655636999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J47" s="9">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="K47" s="9"/>
+      <c r="L47">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="N47" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="P47" s="9">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="R47" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>46</v>
       </c>
@@ -2088,8 +5395,24 @@
       <c r="I48" s="3">
         <v>30.574719999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J48" s="9">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="K48" s="9"/>
+      <c r="L48">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="N48" s="9">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="P48" s="9">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="R48" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>47</v>
       </c>
@@ -2117,8 +5440,24 @@
       <c r="I49" s="3">
         <v>30.675318000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J49" s="9">
+        <f t="shared" si="0"/>
+        <v>3.4722222222222225E-3</v>
+      </c>
+      <c r="L49">
+        <v>3.4722222222222225E-3</v>
+      </c>
+      <c r="N49" s="9">
+        <v>0</v>
+      </c>
+      <c r="P49" s="9">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="R49" s="9">
+        <v>1.8749999999999999E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>48</v>
       </c>
@@ -2146,8 +5485,24 @@
       <c r="I50" s="3">
         <v>30.628810000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J50" s="9">
+        <f t="shared" si="0"/>
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="L50">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="N50" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="P50" s="9">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="R50" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>49</v>
       </c>
@@ -2175,8 +5530,24 @@
       <c r="I51" s="3">
         <v>30.709157999999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J51" s="9">
+        <f t="shared" si="0"/>
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="L51">
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="N51" s="9">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="P51" s="9">
+        <v>1.5277777777777777E-2</v>
+      </c>
+      <c r="R51" s="9">
+        <v>4.1666666666666666E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>50</v>
       </c>
@@ -2204,8 +5575,24 @@
       <c r="I52" s="3">
         <v>30.666768999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J52" s="9">
+        <f t="shared" si="0"/>
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="L52">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="N52" s="9">
+        <v>0</v>
+      </c>
+      <c r="P52" s="9">
+        <v>1.3194444444444444E-2</v>
+      </c>
+      <c r="R52" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>51</v>
       </c>
@@ -2233,8 +5620,24 @@
       <c r="I53" s="3">
         <v>30.651399000000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J53" s="9">
+        <f t="shared" si="0"/>
+        <v>4.8611111111111129E-3</v>
+      </c>
+      <c r="L53">
+        <v>4.8611111111111129E-3</v>
+      </c>
+      <c r="N53" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="P53" s="9">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="R53" s="9">
+        <v>1.5972222222222224E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>52</v>
       </c>
@@ -2262,8 +5665,24 @@
       <c r="I54" s="3">
         <v>30.610139</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J54" s="9">
+        <f t="shared" si="0"/>
+        <v>1.5972222222222224E-2</v>
+      </c>
+      <c r="L54">
+        <v>1.5972222222222224E-2</v>
+      </c>
+      <c r="N54" s="9">
+        <v>9.0277777777777787E-3</v>
+      </c>
+      <c r="P54" s="9">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="R54" s="9">
+        <v>9.0277777777777787E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>53</v>
       </c>
@@ -2291,8 +5710,24 @@
       <c r="I55" s="3">
         <v>30.677219999999998</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J55" s="9">
+        <f t="shared" si="0"/>
+        <v>9.0277777777777804E-3</v>
+      </c>
+      <c r="L55">
+        <v>9.0277777777777804E-3</v>
+      </c>
+      <c r="N55" s="9">
+        <v>1.5277777777777777E-2</v>
+      </c>
+      <c r="P55" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="R55" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>54</v>
       </c>
@@ -2320,8 +5755,24 @@
       <c r="I56" s="3">
         <v>30.695041</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J56" s="9">
+        <f t="shared" si="0"/>
+        <v>1.5972222222222221E-2</v>
+      </c>
+      <c r="L56">
+        <v>1.5972222222222221E-2</v>
+      </c>
+      <c r="N56" s="9">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="P56" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="R56" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>55</v>
       </c>
@@ -2349,8 +5800,24 @@
       <c r="I57" s="3">
         <v>30.682811999999998</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J57" s="9">
+        <f t="shared" si="0"/>
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="L57">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="N57" s="9">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="P57" s="9">
+        <v>1.2499999999999999E-2</v>
+      </c>
+      <c r="R57" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>56</v>
       </c>
@@ -2378,8 +5845,24 @@
       <c r="I58" s="3">
         <v>30.647670999999999</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J58" s="9">
+        <f t="shared" si="0"/>
+        <v>1.5972222222222214E-2</v>
+      </c>
+      <c r="L58">
+        <v>1.5972222222222214E-2</v>
+      </c>
+      <c r="N58" s="9">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="P58" s="9">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="R58" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>57</v>
       </c>
@@ -2407,8 +5890,24 @@
       <c r="I59" s="3">
         <v>30.653032</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J59" s="9">
+        <f t="shared" si="0"/>
+        <v>1.5972222222222214E-2</v>
+      </c>
+      <c r="L59">
+        <v>1.5972222222222214E-2</v>
+      </c>
+      <c r="N59" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="P59" s="9">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="R59" s="9">
+        <v>1.7361111111111112E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>58</v>
       </c>
@@ -2436,8 +5935,24 @@
       <c r="I60" s="3">
         <v>30.673148000000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J60" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2499999999999997E-2</v>
+      </c>
+      <c r="L60">
+        <v>1.2499999999999997E-2</v>
+      </c>
+      <c r="N60" s="9">
+        <v>0</v>
+      </c>
+      <c r="P60" s="9">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="R60" s="9">
+        <v>1.3194444444444444E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>59</v>
       </c>
@@ -2465,8 +5980,24 @@
       <c r="I61" s="3">
         <v>30.653334000000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J61" s="9">
+        <f t="shared" si="0"/>
+        <v>1.4583333333333337E-2</v>
+      </c>
+      <c r="L61">
+        <v>1.4583333333333337E-2</v>
+      </c>
+      <c r="N61" s="9">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="P61" s="9">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="R61" s="9">
+        <v>1.8749999999999999E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>60</v>
       </c>
@@ -2494,8 +6025,24 @@
       <c r="I62" s="3">
         <v>30.684417</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J62" s="9">
+        <f t="shared" si="0"/>
+        <v>1.4583333333333337E-2</v>
+      </c>
+      <c r="L62">
+        <v>1.4583333333333337E-2</v>
+      </c>
+      <c r="N62" s="9">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="P62" s="9">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="R62" s="9">
+        <v>1.5277777777777777E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>61</v>
       </c>
@@ -2523,8 +6070,24 @@
       <c r="I63" s="3">
         <v>30.652994</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J63" s="9">
+        <f t="shared" si="0"/>
+        <v>1.0416666666666671E-2</v>
+      </c>
+      <c r="L63">
+        <v>1.0416666666666671E-2</v>
+      </c>
+      <c r="N63" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="P63" s="9">
+        <v>1.3194444444444444E-2</v>
+      </c>
+      <c r="R63" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>62</v>
       </c>
@@ -2552,8 +6115,24 @@
       <c r="I64" s="3">
         <v>30.642351000000001</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J64" s="9">
+        <f t="shared" si="0"/>
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="L64">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="N64" s="9">
+        <v>9.0277777777777787E-3</v>
+      </c>
+      <c r="P64" s="9">
+        <v>9.0277777777777787E-3</v>
+      </c>
+      <c r="R64" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>63</v>
       </c>
@@ -2581,8 +6160,24 @@
       <c r="I65" s="3">
         <v>30.654578000000001</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J65" s="9">
+        <f t="shared" si="0"/>
+        <v>6.2499999999999986E-3</v>
+      </c>
+      <c r="L65">
+        <v>6.2499999999999986E-3</v>
+      </c>
+      <c r="N65" s="9">
+        <v>1.9444444444444445E-2</v>
+      </c>
+      <c r="P65" s="9">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="R65" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>64</v>
       </c>
@@ -2610,8 +6205,24 @@
       <c r="I66" s="3">
         <v>30.678536999999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J66" s="9">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444406E-3</v>
+      </c>
+      <c r="L66">
+        <v>6.9444444444444406E-3</v>
+      </c>
+      <c r="N66" s="9">
+        <v>6.2499999999999995E-3</v>
+      </c>
+      <c r="P66" s="9">
+        <v>6.2499999999999995E-3</v>
+      </c>
+      <c r="R66" s="9">
+        <v>6.9444444444444447E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>65</v>
       </c>
@@ -2639,8 +6250,24 @@
       <c r="I67" s="3">
         <v>30.629190000000001</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J67" s="9">
+        <f t="shared" ref="J67:J92" si="1">G67-F67</f>
+        <v>6.2499999999999986E-3</v>
+      </c>
+      <c r="L67">
+        <v>6.2499999999999986E-3</v>
+      </c>
+      <c r="N67" s="9">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="P67" s="9">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="R67" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>66</v>
       </c>
@@ -2668,8 +6295,24 @@
       <c r="I68" s="3">
         <v>30.639559999999999</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J68" s="9">
+        <f t="shared" si="1"/>
+        <v>5.5555555555555566E-3</v>
+      </c>
+      <c r="L68">
+        <v>5.5555555555555566E-3</v>
+      </c>
+      <c r="N68" s="9">
+        <v>0</v>
+      </c>
+      <c r="P68" s="9">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="R68" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>67</v>
       </c>
@@ -2697,8 +6340,24 @@
       <c r="I69" s="3">
         <v>30.694275000000001</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J69" s="9">
+        <f t="shared" si="1"/>
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="L69">
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="N69" s="9">
+        <v>0</v>
+      </c>
+      <c r="P69" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="R69" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>68</v>
       </c>
@@ -2726,8 +6385,24 @@
       <c r="I70" s="3">
         <v>30.657920000000001</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J70" s="9">
+        <f t="shared" si="1"/>
+        <v>1.5277777777777779E-2</v>
+      </c>
+      <c r="L70">
+        <v>1.5277777777777779E-2</v>
+      </c>
+      <c r="N70" s="9">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="P70" s="9">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="R70" s="9">
+        <v>6.9444444444444441E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>69</v>
       </c>
@@ -2755,8 +6430,24 @@
       <c r="I71" s="3">
         <v>30.661339999999999</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J71" s="9">
+        <f t="shared" si="1"/>
+        <v>6.9444444444444475E-3</v>
+      </c>
+      <c r="L71">
+        <v>6.9444444444444475E-3</v>
+      </c>
+      <c r="N71" s="9">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="P71" s="9">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="R71" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>70</v>
       </c>
@@ -2784,8 +6475,24 @@
       <c r="I72" s="3">
         <v>30.670974999999999</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J72" s="9">
+        <f t="shared" si="1"/>
+        <v>9.7222222222222293E-3</v>
+      </c>
+      <c r="L72">
+        <v>9.7222222222222293E-3</v>
+      </c>
+      <c r="N72" s="9">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="P72" s="9">
+        <v>1.9444444444444445E-2</v>
+      </c>
+      <c r="R72" s="9">
+        <v>4.1666666666666666E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>71</v>
       </c>
@@ -2813,8 +6520,24 @@
       <c r="I73" s="3">
         <v>30.531369999999999</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J73" s="9">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666663E-2</v>
+      </c>
+      <c r="L73">
+        <v>1.6666666666666663E-2</v>
+      </c>
+      <c r="N73" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="P73" s="9">
+        <v>1.8055555555555557E-2</v>
+      </c>
+      <c r="R73" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>72</v>
       </c>
@@ -2842,8 +6565,24 @@
       <c r="I74" s="3">
         <v>30.629439999999999</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J74" s="9">
+        <f t="shared" si="1"/>
+        <v>1.3194444444444453E-2</v>
+      </c>
+      <c r="L74">
+        <v>1.3194444444444453E-2</v>
+      </c>
+      <c r="N74" s="9">
+        <v>0</v>
+      </c>
+      <c r="P74" s="9">
+        <v>1.5277777777777777E-2</v>
+      </c>
+      <c r="R74" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>73</v>
       </c>
@@ -2871,8 +6610,24 @@
       <c r="I75" s="3">
         <v>30.622848999999999</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J75" s="9">
+        <f t="shared" si="1"/>
+        <v>9.7222222222222293E-3</v>
+      </c>
+      <c r="L75">
+        <v>9.7222222222222293E-3</v>
+      </c>
+      <c r="N75" s="9">
+        <v>0</v>
+      </c>
+      <c r="P75" s="9">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="R75" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>74</v>
       </c>
@@ -2900,8 +6655,24 @@
       <c r="I76" s="3">
         <v>30.633977000000002</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J76" s="9">
+        <f t="shared" si="1"/>
+        <v>6.9444444444444614E-3</v>
+      </c>
+      <c r="L76">
+        <v>6.9444444444444614E-3</v>
+      </c>
+      <c r="N76" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="P76" s="9">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="R76" s="9">
+        <v>8.3333333333333332E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>75</v>
       </c>
@@ -2929,8 +6700,24 @@
       <c r="I77" s="3">
         <v>30.62886</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J77" s="9">
+        <f t="shared" si="1"/>
+        <v>1.2500000000000011E-2</v>
+      </c>
+      <c r="L77">
+        <v>1.2500000000000011E-2</v>
+      </c>
+      <c r="N77" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="P77" s="9">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="R77" s="9">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>76</v>
       </c>
@@ -2958,8 +6745,24 @@
       <c r="I78" s="3">
         <v>30.663195000000002</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J78" s="9">
+        <f t="shared" si="1"/>
+        <v>9.0277777777777735E-3</v>
+      </c>
+      <c r="L78">
+        <v>9.0277777777777735E-3</v>
+      </c>
+      <c r="N78" s="9">
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="P78" s="9">
+        <v>1.5972222222222224E-2</v>
+      </c>
+      <c r="R78" s="9">
+        <v>4.1666666666666666E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>77</v>
       </c>
@@ -2987,8 +6790,24 @@
       <c r="I79" s="3">
         <v>30.627282999999998</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J79" s="9">
+        <f t="shared" si="1"/>
+        <v>1.5277777777777779E-2</v>
+      </c>
+      <c r="L79">
+        <v>1.5277777777777779E-2</v>
+      </c>
+      <c r="N79" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="P79" s="9">
+        <v>1.5972222222222224E-2</v>
+      </c>
+      <c r="R79" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>78</v>
       </c>
@@ -3016,8 +6835,24 @@
       <c r="I80" s="3">
         <v>30.684550999999999</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J80" s="9">
+        <f t="shared" si="1"/>
+        <v>1.8749999999999989E-2</v>
+      </c>
+      <c r="L80">
+        <v>1.8749999999999989E-2</v>
+      </c>
+      <c r="N80" s="9">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="P80" s="9">
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="R80" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>79</v>
       </c>
@@ -3045,8 +6880,24 @@
       <c r="I81" s="3">
         <v>30.539705000000001</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J81" s="9">
+        <f t="shared" si="1"/>
+        <v>1.5972222222222221E-2</v>
+      </c>
+      <c r="L81">
+        <v>1.5972222222222221E-2</v>
+      </c>
+      <c r="N81" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="P81" s="9">
+        <v>9.0277777777777787E-3</v>
+      </c>
+      <c r="R81" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>80</v>
       </c>
@@ -3074,8 +6925,24 @@
       <c r="I82" s="3">
         <v>30.607707000000001</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J82" s="9">
+        <f t="shared" si="1"/>
+        <v>6.9444444444444614E-3</v>
+      </c>
+      <c r="L82">
+        <v>6.9444444444444614E-3</v>
+      </c>
+      <c r="N82" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="P82" s="9">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="R82" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>81</v>
       </c>
@@ -3103,8 +6970,24 @@
       <c r="I83" s="3">
         <v>30.629190000000001</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J83" s="9">
+        <f t="shared" si="1"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="L83">
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="N83" s="9">
+        <v>1.2499999999999999E-2</v>
+      </c>
+      <c r="P83" s="9">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="R83" s="9">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>82</v>
       </c>
@@ -3132,8 +7015,24 @@
       <c r="I84" s="3">
         <v>30.697177</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J84" s="9">
+        <f t="shared" si="1"/>
+        <v>1.1111111111111113E-2</v>
+      </c>
+      <c r="L84">
+        <v>1.1111111111111113E-2</v>
+      </c>
+      <c r="N84" s="9">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="P84" s="9">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="R84" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>83</v>
       </c>
@@ -3161,8 +7060,24 @@
       <c r="I85" s="3">
         <v>30.612278</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J85" s="9">
+        <f t="shared" si="1"/>
+        <v>9.7222222222222293E-3</v>
+      </c>
+      <c r="L85">
+        <v>9.7222222222222293E-3</v>
+      </c>
+      <c r="N85" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="P85" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="R85" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>84</v>
       </c>
@@ -3190,8 +7105,24 @@
       <c r="I86" s="3">
         <v>30.628810000000001</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J86" s="9">
+        <f t="shared" si="1"/>
+        <v>1.7361111111111133E-2</v>
+      </c>
+      <c r="L86">
+        <v>1.7361111111111133E-2</v>
+      </c>
+      <c r="N86" s="9">
+        <v>6.2499999999999995E-3</v>
+      </c>
+      <c r="P86" s="9">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="R86" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>85</v>
       </c>
@@ -3219,8 +7150,24 @@
       <c r="I87" s="3">
         <v>30.686346</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J87" s="9">
+        <f t="shared" si="1"/>
+        <v>1.7361111111111133E-2</v>
+      </c>
+      <c r="L87">
+        <v>1.7361111111111133E-2</v>
+      </c>
+      <c r="N87" s="9">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="P87" s="9">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="R87" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>86</v>
       </c>
@@ -3248,109 +7195,255 @@
       <c r="I88" s="3">
         <v>30.666184999999999</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J88" s="9">
+        <f t="shared" si="1"/>
+        <v>9.0277777777777873E-3</v>
+      </c>
+      <c r="L88">
+        <v>9.0277777777777873E-3</v>
+      </c>
+      <c r="N88" s="9">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="P88" s="9">
+        <v>6.2499999999999995E-3</v>
+      </c>
+      <c r="R88" s="9">
+        <v>9.0277777777777787E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>87</v>
       </c>
-      <c r="B89" s="2">
-        <v>43210</v>
-      </c>
-      <c r="C89" s="1">
+      <c r="B89" s="5">
+        <v>43210</v>
+      </c>
+      <c r="C89" s="6">
         <v>1</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E89" s="1"/>
-      <c r="F89" s="4">
+      <c r="E89" s="6"/>
+      <c r="F89" s="8">
         <v>0.12708333333333333</v>
       </c>
-      <c r="G89" s="1"/>
-      <c r="H89" s="3">
+      <c r="G89" s="8">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="H89" s="7">
         <v>104.048658</v>
       </c>
       <c r="I89" s="3">
         <v>30.645420000000001</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J89" s="9">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333315E-3</v>
+      </c>
+      <c r="L89">
+        <v>8.3333333333333315E-3</v>
+      </c>
+      <c r="N89" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="P89" s="9">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="R89" s="9">
+        <v>6.9444444444444447E-4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>88</v>
       </c>
-      <c r="B90" s="2">
-        <v>43210</v>
-      </c>
-      <c r="C90" s="1">
+      <c r="B90" s="5">
+        <v>43210</v>
+      </c>
+      <c r="C90" s="6">
         <v>1</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E90" s="1"/>
-      <c r="F90" s="4">
+      <c r="E90" s="6"/>
+      <c r="F90" s="8">
         <v>0.1277777777777778</v>
       </c>
-      <c r="G90" s="1"/>
-      <c r="H90" s="3">
+      <c r="G90" s="8">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="H90" s="7">
         <v>104.000441</v>
       </c>
       <c r="I90" s="3">
         <v>30.674786000000001</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J90" s="9">
+        <f t="shared" si="1"/>
+        <v>7.6388888888888618E-3</v>
+      </c>
+      <c r="L90">
+        <v>7.6388888888888618E-3</v>
+      </c>
+      <c r="N90" s="9">
+        <v>2.013888888888889E-2</v>
+      </c>
+      <c r="P90" s="9">
+        <v>1.8055555555555557E-2</v>
+      </c>
+      <c r="R90" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>89</v>
       </c>
-      <c r="B91" s="2">
-        <v>43210</v>
-      </c>
-      <c r="C91" s="1">
+      <c r="B91" s="5">
+        <v>43210</v>
+      </c>
+      <c r="C91" s="6">
         <v>1</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E91" s="1"/>
-      <c r="F91" s="4">
+      <c r="E91" s="6"/>
+      <c r="F91" s="8">
         <v>0.12569444444444444</v>
       </c>
-      <c r="G91" s="1"/>
-      <c r="H91" s="3">
+      <c r="G91" s="8">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="H91" s="7">
         <v>104.067413</v>
       </c>
       <c r="I91" s="3">
         <v>30.643080999999999</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J91" s="9">
+        <f t="shared" si="1"/>
+        <v>9.7222222222222154E-3</v>
+      </c>
+      <c r="L91">
+        <v>9.7222222222222154E-3</v>
+      </c>
+      <c r="N91" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="P91" s="9">
+        <v>2.013888888888889E-2</v>
+      </c>
+      <c r="R91" s="9">
+        <v>6.2499999999999995E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>90</v>
       </c>
-      <c r="B92" s="2">
-        <v>43210</v>
-      </c>
-      <c r="C92" s="1">
+      <c r="B92" s="5">
+        <v>43210</v>
+      </c>
+      <c r="C92" s="6">
         <v>1</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E92" s="1"/>
-      <c r="F92" s="4">
+      <c r="E92" s="6"/>
+      <c r="F92" s="8">
         <v>0.13194444444444445</v>
       </c>
-      <c r="G92" s="1"/>
-      <c r="H92" s="3">
+      <c r="G92" s="8">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="H92" s="7">
         <v>104.090515</v>
       </c>
       <c r="I92" s="3">
         <v>30.693498999999999</v>
+      </c>
+      <c r="J92" s="9">
+        <f t="shared" si="1"/>
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="L92">
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="N92" s="9">
+        <v>1.4583333333333332E-2</v>
+      </c>
+      <c r="P92" s="9">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="R92" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J94" s="11">
+        <f>SUM(J2:J92)</f>
+        <v>1.0951388888888873</v>
+      </c>
+      <c r="K94" s="11"/>
+      <c r="L94" s="11"/>
+      <c r="M94" s="11"/>
+      <c r="N94" s="11">
+        <f t="shared" ref="N94:Q94" si="2">SUM(N2:N92)</f>
+        <v>1.09375</v>
+      </c>
+      <c r="O94" s="11"/>
+      <c r="P94" s="11">
+        <f t="shared" si="2"/>
+        <v>1.0069444444444438</v>
+      </c>
+      <c r="Q94" s="11"/>
+    </row>
+    <row r="97" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J97" s="10">
+        <f>SUM(J2:J92)</f>
+        <v>1.0951388888888873</v>
+      </c>
+      <c r="K97" s="11"/>
+      <c r="L97" s="11"/>
+      <c r="M97" s="11"/>
+      <c r="N97" s="10">
+        <f t="shared" ref="N97:R97" si="3">SUM(N2:N92)</f>
+        <v>1.09375</v>
+      </c>
+      <c r="O97" s="11"/>
+      <c r="P97" s="10">
+        <f t="shared" si="3"/>
+        <v>1.0069444444444438</v>
+      </c>
+      <c r="Q97" s="10"/>
+      <c r="R97" s="10">
+        <f t="shared" si="3"/>
+        <v>0.54444444444444418</v>
+      </c>
+    </row>
+    <row r="99" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J99" t="s">
+        <v>103</v>
+      </c>
+      <c r="N99" t="s">
+        <v>102</v>
+      </c>
+      <c r="P99" t="s">
+        <v>101</v>
+      </c>
+      <c r="R99" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>